--- a/DB엑셀정리/데이터베이스초안.xlsx
+++ b/DB엑셀정리/데이터베이스초안.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\502\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevTool\BaseBall\BaseBall_data_Crowling\DB엑셀정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39643731-EE8E-4955-9D7E-9CFB150EE6F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D6B30F-D0CB-4783-A6A3-D5DB476D8C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="2460" windowWidth="21600" windowHeight="13140" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="국적" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="리그명" sheetId="4" r:id="rId4"/>
     <sheet name="야구 포지션" sheetId="5" r:id="rId5"/>
     <sheet name="선수마스터" sheetId="6" r:id="rId6"/>
+    <sheet name="년별팀스탯" sheetId="7" r:id="rId7"/>
+    <sheet name="게임용어 정리" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="스포츠">국적!$A:$A</definedName>
@@ -35,14 +38,14 @@
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataChecksum="gqUlA7sszdgMyx1nZ80H+yAkxzV5aZpJc65Sar6BQNY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="gqUlA7sszdgMyx1nZ80H+yAkxzV5aZpJc65Sar6BQNY="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="192">
   <si>
     <t>국적</t>
   </si>
@@ -231,11 +234,11 @@
   </si>
   <si>
     <t>리그명코드</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>KBO</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -249,7 +252,7 @@
       </rPr>
       <t>리그</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -284,7 +287,7 @@
       </rPr>
       <t>종류</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -319,7 +322,7 @@
       </rPr>
       <t>리그</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -354,35 +357,35 @@
       </rPr>
       <t>리그</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>RS</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>PS</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>PR</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>WS</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>리그명 약어</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>포지션 약어</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>포지션 명(KR)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -425,15 +428,15 @@
       </rPr>
       <t>(US)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>투수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>포수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -449,7 +452,7 @@
       </rPr>
       <t>루수</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -465,7 +468,7 @@
       </rPr>
       <t>루수</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -481,135 +484,135 @@
       </rPr>
       <t>루수</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>유격수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>좌익수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>중견수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>우익수</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>지명타자</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>pitcher</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>catcher</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>first baseman</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>second baseman</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>P</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3B</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>SS</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LF</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>CF</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>RF</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>DH</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>third baseman</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>short stop</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>left fielder</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>center fielder</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>right fielder</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>designated hitter</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>애리조나 다이아몬드백스</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>포지션 코드</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>성(firstName)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>풀네임(fullName)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>팀코드(teamCode)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>팀이름(teamName)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>이름(fullName)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -631,15 +634,15 @@
       </rPr>
       <t>(firstName)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>이름(lastName)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>포지션(position)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -661,11 +664,11 @@
       </rPr>
       <t>ID(playerId)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>스탯티즈팀코드(데이터파싱용코드)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -711,18 +714,609 @@
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>년도(Year)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기수</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기수(G)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>승(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>패(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효 타석(ePA)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타수(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>AB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>득점(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>R)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>안타(H)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>루타(2B)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>루타(3B)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈런(HR)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타점(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>RBI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>도루성공(SB)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>도루실패(CS)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>삼진(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SO)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>타율(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>AVG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출루율(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>OBP)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>장타율(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SLG)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>US</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>KR</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>약어</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Games</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Win</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lost</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effective Plate Appernce</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>At Bat</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runs</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hits</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeRun</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Runs Batted In</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stolen Base</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caught Stealing</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Based on Balls</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Strike Out</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>On Base Percentage</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slugging Average</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>승리</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>패배</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효타석</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>타수</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>득점</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>안타</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>루타</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>루타</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈런</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>타점</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>도루성공</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>도루실패</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="굴림"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼진</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>타율</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>출루율</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>장타율</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLG</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ePA</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AB</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>RBI</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SB</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BB</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AVG</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>OBP</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -826,6 +1420,51 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -847,60 +1486,87 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2160,7 +2826,7 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -2170,13 +2836,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="26" width="8.7109375" customWidth="1"/>
   </cols>
@@ -3228,7 +3896,7 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -3282,7 +3950,7 @@
       <c r="I1" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="14" t="s">
         <v>118</v>
       </c>
       <c r="K1" s="7"/>
@@ -4488,124 +5156,124 @@
       <c r="D71" s="3"/>
     </row>
     <row r="72" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C72" s="13"/>
-      <c r="D72" s="15"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="26"/>
     </row>
     <row r="73" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
     </row>
     <row r="74" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C74" s="14"/>
-      <c r="D74" s="14"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
     </row>
     <row r="75" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
     </row>
     <row r="76" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C76" s="14"/>
-      <c r="D76" s="14"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
     </row>
     <row r="77" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C77" s="14"/>
-      <c r="D77" s="14"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="25"/>
     </row>
     <row r="78" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C78" s="14"/>
-      <c r="D78" s="14"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="25"/>
     </row>
     <row r="79" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C79" s="14"/>
-      <c r="D79" s="14"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
     </row>
     <row r="80" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C80" s="14"/>
-      <c r="D80" s="14"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
     </row>
     <row r="81" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C81" s="14"/>
-      <c r="D81" s="14"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="25"/>
     </row>
     <row r="82" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C82" s="14"/>
-      <c r="D82" s="14"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="25"/>
     </row>
     <row r="83" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C83" s="14"/>
-      <c r="D83" s="14"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
     </row>
     <row r="84" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
     </row>
     <row r="85" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
     </row>
     <row r="86" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="25"/>
     </row>
     <row r="87" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C87" s="14"/>
-      <c r="D87" s="15"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="26"/>
     </row>
     <row r="88" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C88" s="14"/>
-      <c r="D88" s="14"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
     </row>
     <row r="89" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
+      <c r="C89" s="25"/>
+      <c r="D89" s="25"/>
     </row>
     <row r="90" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C90" s="14"/>
-      <c r="D90" s="14"/>
+      <c r="C90" s="25"/>
+      <c r="D90" s="25"/>
     </row>
     <row r="91" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
     </row>
     <row r="92" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C92" s="14"/>
-      <c r="D92" s="14"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
     </row>
     <row r="93" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25"/>
     </row>
     <row r="94" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
+      <c r="C94" s="25"/>
+      <c r="D94" s="25"/>
     </row>
     <row r="95" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
     </row>
     <row r="96" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
     </row>
     <row r="97" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
+      <c r="C97" s="25"/>
+      <c r="D97" s="25"/>
     </row>
     <row r="98" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
     </row>
     <row r="99" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C99" s="14"/>
-      <c r="D99" s="14"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
     </row>
     <row r="100" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C100" s="14"/>
-      <c r="D100" s="14"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
     </row>
     <row r="101" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
+      <c r="C101" s="25"/>
+      <c r="D101" s="25"/>
     </row>
     <row r="102" spans="3:4" ht="16.5" customHeight="1"/>
     <row r="103" spans="3:4" ht="16.5" customHeight="1"/>
@@ -5512,7 +6180,7 @@
     <mergeCell ref="D72:D86"/>
     <mergeCell ref="D87:D101"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
@@ -5522,8 +6190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6799,7 +7467,7 @@
     <row r="999" ht="16.5" customHeight="1"/>
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -6976,7 +7644,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6986,7 +7654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73121482-3444-4B8C-B724-B883FDD4DBA9}">
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -7014,7 +7682,7 @@
       <c r="C1" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>113</v>
       </c>
       <c r="E1" s="6" t="s">
@@ -7029,12 +7697,418 @@
       <c r="H1" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="13" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22F97F2-3E13-4AC0-82DD-6D9E2302F34D}">
+  <dimension ref="A1:T3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" customWidth="1"/>
+    <col min="15" max="15" width="16" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+    <col min="18" max="18" width="13.140625" customWidth="1"/>
+    <col min="19" max="19" width="13.85546875" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q1" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="15"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F42D96-C540-4B7B-92E0-1A489267AF44}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75">
+      <c r="A1" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D6" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D11" s="22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D13" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="22">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D19" s="22">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5F7554-A8D9-4789-8CAB-13537C3396CE}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DB엑셀정리/데이터베이스초안.xlsx
+++ b/DB엑셀정리/데이터베이스초안.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevTool\BaseBall\BaseBall_data_Crowling\DB엑셀정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D6B30F-D0CB-4783-A6A3-D5DB476D8C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD329FC9-3782-41D2-A2A5-E406DA6DAEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="국적" sheetId="1" r:id="rId1"/>
@@ -3906,7 +3906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -6190,7 +6190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -8110,5 +8110,6 @@
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DB엑셀정리/데이터베이스초안.xlsx
+++ b/DB엑셀정리/데이터베이스초안.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevTool\BaseBall\BaseBall_data_Crowling\DB엑셀정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD329FC9-3782-41D2-A2A5-E406DA6DAEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4073B116-7DAA-41F7-8810-AC4BD48B23EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="241">
   <si>
     <t>국적</t>
   </si>
@@ -89,9 +89,6 @@
     <t>AL</t>
   </si>
   <si>
-    <t>팀명</t>
-  </si>
-  <si>
     <t>리그 코드</t>
   </si>
   <si>
@@ -105,21 +102,6 @@
   </si>
   <si>
     <t>두산 베어스</t>
-  </si>
-  <si>
-    <t>LG 트윈스</t>
-  </si>
-  <si>
-    <t>KT wiz</t>
-  </si>
-  <si>
-    <t>SSG 랜더스</t>
-  </si>
-  <si>
-    <t>NC 다이노스</t>
-  </si>
-  <si>
-    <t>KIA 타이거즈</t>
   </si>
   <si>
     <t>롯데 자이언츠</t>
@@ -1293,12 +1275,267 @@
     <t>OBP</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>팀명(KR)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>엘지 트윈스</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이티 위즈</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스에스지 랜더스</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔씨 다이노스</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>기아 타이거즈</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>KT WIZ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOOSAN BEARS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG TWINS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSG LANDERS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NC DINOS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>KIA TIGERS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOTTE GIANTS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAMSUNG LIONS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>HANHWA EAGLES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>KIWOOM HEROES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀명(ENG)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BALTIMORE ORIOLES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSTON REDSOX</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWYORK YANKEES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAMPABAY RAYS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TORONTO BLUEJAYS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLEVELAND GUARDIANS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHICAGO WHITESOX</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 팀명(KR)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이전</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움체"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>팀명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+      </rPr>
+      <t>(ENG)</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>클리블랜드 인디언스</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLEVELAND INDIANS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DETROIT TIGERS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>KANSASCITY ROYALS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MINNESOTA TWINS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXAS RANGERS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEATTLE MARINERS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>OAKLAND ATHLETICS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOSANGELES ANGELSOFANAHEIM</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOUSTON ASTROS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATLANTA BRAVES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>WASHINGTON NATIONALS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PHILADELPHIA PHILLIES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEWYORK METS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIAMI MARLINS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHICAGO CUBS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CINCINNATI REDS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>MILWAUKEE BREWERS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PITTSBURGH PIRATES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOSANGELES DODGERS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANDEIGO PADRES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SANFRANCISCO GIANTS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLORADO ROCKES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARIZONA DIAMONDBACKS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAINTLOUIS CARDINALS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스케이 와이번스</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>해태 타이거즈</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SK WYVERNS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> HAETAE TIGRES</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1465,6 +1702,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1502,9 +1746,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1527,9 +1768,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1566,6 +1804,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3904,1388 +4148,1692 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="14.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="25.5703125" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" customWidth="1"/>
-    <col min="9" max="9" width="39.7109375" customWidth="1"/>
-    <col min="10" max="10" width="42.42578125" customWidth="1"/>
-    <col min="11" max="11" width="30.42578125" customWidth="1"/>
-    <col min="12" max="26" width="8.7109375" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" customWidth="1"/>
+    <col min="4" max="5" width="32.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="39.7109375" customWidth="1"/>
+    <col min="13" max="13" width="42.42578125" customWidth="1"/>
+    <col min="14" max="14" width="30.42578125" customWidth="1"/>
+    <col min="15" max="29" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="20"/>
+      <c r="L1" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="C2" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4" t="str">
+        <f t="shared" ref="J2:J26" si="0">G2 &amp; H2 &amp; TEXT(I2, "000")</f>
+        <v>BBKRKB001</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20">
+        <v>6002</v>
+      </c>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="str">
-        <f t="shared" ref="G2:G26" si="0">D2 &amp; E2 &amp; TEXT(F2, "000")</f>
-        <v>BBKRKB001</v>
-      </c>
-      <c r="I2">
-        <v>6002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="I3" s="4">
         <v>2</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="5">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="str">
+      <c r="J3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBKRKB002</v>
       </c>
-      <c r="I3">
+      <c r="K3" s="20"/>
+      <c r="L3" s="20">
         <v>5002</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="5">
+      <c r="I4" s="4">
         <v>3</v>
       </c>
-      <c r="G4" s="5" t="str">
+      <c r="J4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBKRKB003</v>
       </c>
-      <c r="I4">
+      <c r="K4" s="20"/>
+      <c r="L4" s="20">
         <v>12001</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="H5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="5">
+      <c r="I5" s="4">
         <v>4</v>
       </c>
-      <c r="G5" s="5" t="str">
+      <c r="J5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBKRKB004</v>
       </c>
-      <c r="I5">
+      <c r="K5" s="20"/>
+      <c r="L5" s="20">
         <v>9002</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="5">
+      <c r="I6" s="4">
         <v>5</v>
       </c>
-      <c r="G6" s="5" t="str">
+      <c r="J6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBKRKB005</v>
       </c>
-      <c r="I6">
+      <c r="K6" s="20"/>
+      <c r="L6" s="20">
         <v>11001</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A7" s="1" t="s">
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="H7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="5">
+      <c r="I7" s="4">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="str">
+      <c r="J7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBKRKB006</v>
       </c>
-      <c r="I7">
+      <c r="K7" s="20"/>
+      <c r="L7" s="20">
         <v>2002</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A8" s="1" t="s">
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="H8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="5">
+      <c r="I8" s="4">
         <v>7</v>
       </c>
-      <c r="G8" s="5" t="str">
+      <c r="J8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBKRKB007</v>
       </c>
-      <c r="I8">
+      <c r="K8" s="20"/>
+      <c r="L8" s="20">
         <v>3001</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A9" s="1" t="s">
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="H9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="5">
+      <c r="I9" s="4">
         <v>8</v>
       </c>
-      <c r="G9" s="5" t="str">
+      <c r="J9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBKRKB008</v>
       </c>
-      <c r="I9">
+      <c r="K9" s="20"/>
+      <c r="L9" s="20">
         <v>1001</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A10" s="1" t="s">
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="H10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="5">
+      <c r="I10" s="4">
         <v>9</v>
       </c>
-      <c r="G10" s="5" t="str">
+      <c r="J10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBKRKB009</v>
       </c>
-      <c r="I10">
+      <c r="K10" s="20"/>
+      <c r="L10" s="20">
         <v>7002</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A11" s="1" t="s">
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="H11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="5">
+      <c r="I11" s="4">
         <v>10</v>
       </c>
-      <c r="G11" s="5" t="str">
+      <c r="J11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBKRKB010</v>
       </c>
-      <c r="I11">
+      <c r="K11" s="20"/>
+      <c r="L11" s="20">
         <v>10001</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="1" t="s">
+      <c r="M11" s="20"/>
+    </row>
+    <row r="12" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="H12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="5">
+      <c r="I12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="5" t="str">
+      <c r="J12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBUSNL001</v>
       </c>
-      <c r="J12">
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="H13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="5">
+      <c r="I13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="5" t="str">
+      <c r="J13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBUSNL002</v>
       </c>
-      <c r="J13">
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20">
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="H14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="5">
+      <c r="I14" s="4">
         <v>3</v>
       </c>
-      <c r="G14" s="5" t="str">
+      <c r="J14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBUSNL003</v>
       </c>
-      <c r="J14">
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20">
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="H15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="5">
+      <c r="I15" s="4">
         <v>4</v>
       </c>
-      <c r="G15" s="5" t="str">
+      <c r="J15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBUSNL004</v>
       </c>
-      <c r="J15">
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="5">
+      <c r="I16" s="4">
         <v>5</v>
       </c>
-      <c r="G16" s="5" t="str">
+      <c r="J16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBUSNL005</v>
       </c>
-      <c r="J16">
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="H17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="5">
+      <c r="I17" s="4">
         <v>6</v>
       </c>
-      <c r="G17" s="5" t="str">
+      <c r="J17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBUSNL006</v>
       </c>
-      <c r="J17">
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A18" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="H18" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="5">
+      <c r="I18" s="4">
         <v>7</v>
       </c>
-      <c r="G18" s="5" t="str">
+      <c r="J18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBUSNL007</v>
       </c>
-      <c r="J18">
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20">
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="G19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="H19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="5">
+      <c r="I19" s="4">
         <v>8</v>
       </c>
-      <c r="G19" s="5" t="str">
+      <c r="J19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBUSNL008</v>
       </c>
-      <c r="J19">
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="20">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="H20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="5">
+      <c r="I20" s="4">
         <v>9</v>
       </c>
-      <c r="G20" s="5" t="str">
+      <c r="J20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBUSNL009</v>
       </c>
-      <c r="J20">
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="H21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="5">
+      <c r="I21" s="4">
         <v>10</v>
       </c>
-      <c r="G21" s="5" t="str">
+      <c r="J21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBUSNL010</v>
       </c>
-      <c r="J21">
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="H22" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="5">
+      <c r="I22" s="4">
         <v>11</v>
       </c>
-      <c r="G22" s="5" t="str">
+      <c r="J22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBUSNL011</v>
       </c>
-      <c r="J22">
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20">
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="H23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="5">
+      <c r="I23" s="4">
         <v>12</v>
       </c>
-      <c r="G23" s="5" t="str">
+      <c r="J23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBUSNL012</v>
       </c>
-      <c r="J23">
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20">
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="H24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="5">
+      <c r="I24" s="4">
         <v>13</v>
       </c>
-      <c r="G24" s="5" t="str">
+      <c r="J24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBUSNL013</v>
       </c>
-      <c r="J24">
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20">
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="H25" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="5">
+      <c r="I25" s="4">
         <v>14</v>
       </c>
-      <c r="G25" s="5" t="str">
+      <c r="J25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBUSNL014</v>
       </c>
-      <c r="J25">
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20">
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="H26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="5">
+      <c r="I26" s="4">
         <v>15</v>
       </c>
-      <c r="G26" s="5" t="str">
+      <c r="J26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>BBUSNL015</v>
       </c>
-      <c r="J26">
+      <c r="K26" s="20"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="20">
         <v>137</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="H27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F27" s="5">
+      <c r="I27" s="4">
         <v>1</v>
       </c>
-      <c r="G27" s="5" t="str">
-        <f t="shared" ref="G27:G41" si="1">D27&amp;E27&amp;TEXT(F27,"000")</f>
+      <c r="J27" s="4" t="str">
+        <f t="shared" ref="J27:J41" si="1">G27&amp;H27&amp;TEXT(I27,"000")</f>
         <v>BBUSAL001</v>
       </c>
-      <c r="J27">
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20">
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="H28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F28" s="5">
+      <c r="I28" s="4">
         <v>2</v>
       </c>
-      <c r="G28" s="5" t="str">
+      <c r="J28" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BBUSAL002</v>
       </c>
-      <c r="J28">
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20">
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="H29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="5">
+      <c r="I29" s="4">
         <v>3</v>
       </c>
-      <c r="G29" s="5" t="str">
+      <c r="J29" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BBUSAL003</v>
       </c>
-      <c r="J29">
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20">
         <v>147</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="H30" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="5">
+      <c r="I30" s="4">
         <v>4</v>
       </c>
-      <c r="G30" s="5" t="str">
+      <c r="J30" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BBUSAL004</v>
       </c>
-      <c r="J30">
+      <c r="K30" s="20"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20">
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="H31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F31" s="5">
+      <c r="I31" s="4">
         <v>5</v>
       </c>
-      <c r="G31" s="5" t="str">
+      <c r="J31" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BBUSAL005</v>
       </c>
-      <c r="J31">
+      <c r="K31" s="20"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20">
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="H32" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="5">
+      <c r="I32" s="4">
         <v>6</v>
       </c>
-      <c r="G32" s="5" t="str">
+      <c r="J32" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BBUSAL006</v>
       </c>
-      <c r="J32">
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A33" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="H33" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="5">
+      <c r="I33" s="4">
         <v>7</v>
       </c>
-      <c r="G33" s="5" t="str">
+      <c r="J33" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BBUSAL007</v>
       </c>
-      <c r="J33">
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="H34" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F34" s="5">
+      <c r="I34" s="4">
         <v>8</v>
       </c>
-      <c r="G34" s="5" t="str">
+      <c r="J34" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BBUSAL008</v>
       </c>
-      <c r="J34">
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20">
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A35" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="G35" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="H35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="5">
+      <c r="I35" s="4">
         <v>9</v>
       </c>
-      <c r="G35" s="5" t="str">
+      <c r="J35" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BBUSAL009</v>
       </c>
-      <c r="J35">
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20">
         <v>118</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A36" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="H36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="5">
+      <c r="I36" s="4">
         <v>10</v>
       </c>
-      <c r="G36" s="5" t="str">
+      <c r="J36" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BBUSAL010</v>
       </c>
-      <c r="J36">
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20">
         <v>142</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A37" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="G37" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="H37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="5">
+      <c r="I37" s="4">
         <v>11</v>
       </c>
-      <c r="G37" s="5" t="str">
+      <c r="J37" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BBUSAL011</v>
       </c>
-      <c r="J37">
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20">
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A38" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="G38" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="H38" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="5">
+      <c r="I38" s="4">
         <v>12</v>
       </c>
-      <c r="G38" s="5" t="str">
+      <c r="J38" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BBUSAL012</v>
       </c>
-      <c r="J38">
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A39" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="G39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="H39" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F39" s="5">
+      <c r="I39" s="4">
         <v>13</v>
       </c>
-      <c r="G39" s="5" t="str">
+      <c r="J39" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BBUSAL013</v>
       </c>
-      <c r="J39">
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20">
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A40" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="G40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="H40" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="5">
+      <c r="I40" s="4">
         <v>14</v>
       </c>
-      <c r="G40" s="5" t="str">
+      <c r="J40" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BBUSAL014</v>
       </c>
-      <c r="J40">
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20">
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:13" ht="16.5" customHeight="1">
+      <c r="A41" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="G41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="H41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="5">
+      <c r="I41" s="4">
         <v>15</v>
       </c>
-      <c r="G41" s="5" t="str">
+      <c r="J41" s="4" t="str">
         <f t="shared" si="1"/>
         <v>BBUSAL015</v>
       </c>
-      <c r="J41">
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20">
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16.5" customHeight="1">
-      <c r="C42" s="1"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:10" ht="16.5" customHeight="1">
-      <c r="C43" s="1"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:10" ht="16.5" customHeight="1">
-      <c r="C44" s="1"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:10" ht="16.5" customHeight="1">
-      <c r="C45" s="1"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:10" ht="16.5" customHeight="1">
-      <c r="C46" s="1"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:10" ht="16.5" customHeight="1">
-      <c r="C47" s="1"/>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" ht="16.5" customHeight="1">
-      <c r="C48" s="1"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C49" s="1"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C50" s="1"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C51" s="1"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C52" s="1"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C53" s="1"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C54" s="1"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C55" s="1"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C56" s="1"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C57" s="1"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C58" s="1"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C59" s="1"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C60" s="1"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C61" s="1"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C62" s="1"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C63" s="1"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C64" s="1"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C65" s="1"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C66" s="1"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C67" s="1"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C68" s="1"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C69" s="1"/>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C70" s="1"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C71" s="1"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C72" s="24"/>
-      <c r="D72" s="26"/>
-    </row>
-    <row r="73" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C73" s="25"/>
-      <c r="D73" s="25"/>
-    </row>
-    <row r="74" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C74" s="25"/>
-      <c r="D74" s="25"/>
-    </row>
-    <row r="75" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-    </row>
-    <row r="76" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-    </row>
-    <row r="77" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-    </row>
-    <row r="78" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C78" s="25"/>
-      <c r="D78" s="25"/>
-    </row>
-    <row r="79" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-    </row>
-    <row r="80" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-    </row>
-    <row r="81" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C81" s="25"/>
-      <c r="D81" s="25"/>
-    </row>
-    <row r="82" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C82" s="25"/>
-      <c r="D82" s="25"/>
-    </row>
-    <row r="83" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-    </row>
-    <row r="84" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-    </row>
-    <row r="85" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C85" s="25"/>
-      <c r="D85" s="25"/>
-    </row>
-    <row r="86" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-    </row>
-    <row r="87" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C87" s="25"/>
-      <c r="D87" s="26"/>
-    </row>
-    <row r="88" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-    </row>
-    <row r="89" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-    </row>
-    <row r="90" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-    </row>
-    <row r="91" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-    </row>
-    <row r="92" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-    </row>
-    <row r="93" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-    </row>
-    <row r="94" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-    </row>
-    <row r="95" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-    </row>
-    <row r="96" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-    </row>
-    <row r="97" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-    </row>
-    <row r="98" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C98" s="25"/>
-      <c r="D98" s="25"/>
-    </row>
-    <row r="99" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-    </row>
-    <row r="100" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-    </row>
-    <row r="101" spans="3:4" ht="16.5" customHeight="1">
-      <c r="C101" s="25"/>
-      <c r="D101" s="25"/>
-    </row>
-    <row r="102" spans="3:4" ht="16.5" customHeight="1"/>
-    <row r="103" spans="3:4" ht="16.5" customHeight="1"/>
-    <row r="104" spans="3:4" ht="16.5" customHeight="1"/>
-    <row r="105" spans="3:4" ht="16.5" customHeight="1"/>
-    <row r="106" spans="3:4" ht="16.5" customHeight="1"/>
-    <row r="107" spans="3:4" ht="16.5" customHeight="1"/>
-    <row r="108" spans="3:4" ht="16.5" customHeight="1"/>
-    <row r="109" spans="3:4" ht="16.5" customHeight="1"/>
-    <row r="110" spans="3:4" ht="16.5" customHeight="1"/>
-    <row r="111" spans="3:4" ht="16.5" customHeight="1"/>
-    <row r="112" spans="3:4" ht="16.5" customHeight="1"/>
+    <row r="42" spans="1:13" ht="16.5" customHeight="1">
+      <c r="F42" s="1"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="1:13" ht="16.5" customHeight="1">
+      <c r="F43" s="1"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:13" ht="16.5" customHeight="1">
+      <c r="F44" s="1"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" ht="16.5" customHeight="1">
+      <c r="F45" s="1"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" ht="16.5" customHeight="1">
+      <c r="F46" s="1"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" ht="16.5" customHeight="1">
+      <c r="F47" s="1"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" spans="1:13" ht="16.5" customHeight="1">
+      <c r="F48" s="1"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F49" s="1"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F50" s="1"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F51" s="1"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F52" s="1"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F53" s="1"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F54" s="1"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F55" s="1"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F56" s="1"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F57" s="1"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F58" s="1"/>
+      <c r="G58" s="3"/>
+    </row>
+    <row r="59" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F59" s="1"/>
+      <c r="G59" s="3"/>
+    </row>
+    <row r="60" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F60" s="1"/>
+      <c r="G60" s="3"/>
+    </row>
+    <row r="61" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F61" s="1"/>
+      <c r="G61" s="3"/>
+    </row>
+    <row r="62" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F62" s="1"/>
+      <c r="G62" s="3"/>
+    </row>
+    <row r="63" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F63" s="1"/>
+      <c r="G63" s="3"/>
+    </row>
+    <row r="64" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F64" s="1"/>
+      <c r="G64" s="3"/>
+    </row>
+    <row r="65" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F65" s="1"/>
+      <c r="G65" s="3"/>
+    </row>
+    <row r="66" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F66" s="1"/>
+      <c r="G66" s="3"/>
+    </row>
+    <row r="67" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F67" s="1"/>
+      <c r="G67" s="3"/>
+    </row>
+    <row r="68" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F68" s="1"/>
+      <c r="G68" s="3"/>
+    </row>
+    <row r="69" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F69" s="1"/>
+      <c r="G69" s="3"/>
+    </row>
+    <row r="70" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F70" s="1"/>
+      <c r="G70" s="3"/>
+    </row>
+    <row r="71" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F71" s="1"/>
+      <c r="G71" s="3"/>
+    </row>
+    <row r="72" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F72" s="22"/>
+      <c r="G72" s="24"/>
+    </row>
+    <row r="73" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F73" s="23"/>
+      <c r="G73" s="23"/>
+    </row>
+    <row r="74" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F74" s="23"/>
+      <c r="G74" s="23"/>
+    </row>
+    <row r="75" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+    </row>
+    <row r="76" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+    </row>
+    <row r="77" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+    </row>
+    <row r="78" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F78" s="23"/>
+      <c r="G78" s="23"/>
+    </row>
+    <row r="79" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+    </row>
+    <row r="80" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+    </row>
+    <row r="81" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+    </row>
+    <row r="82" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+    </row>
+    <row r="83" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+    </row>
+    <row r="84" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+    </row>
+    <row r="85" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+    </row>
+    <row r="86" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+    </row>
+    <row r="87" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F87" s="23"/>
+      <c r="G87" s="24"/>
+    </row>
+    <row r="88" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F88" s="23"/>
+      <c r="G88" s="23"/>
+    </row>
+    <row r="89" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F89" s="23"/>
+      <c r="G89" s="23"/>
+    </row>
+    <row r="90" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+    </row>
+    <row r="91" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F91" s="23"/>
+      <c r="G91" s="23"/>
+    </row>
+    <row r="92" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F92" s="23"/>
+      <c r="G92" s="23"/>
+    </row>
+    <row r="93" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F93" s="23"/>
+      <c r="G93" s="23"/>
+    </row>
+    <row r="94" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F94" s="23"/>
+      <c r="G94" s="23"/>
+    </row>
+    <row r="95" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F95" s="23"/>
+      <c r="G95" s="23"/>
+    </row>
+    <row r="96" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+    </row>
+    <row r="97" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+    </row>
+    <row r="98" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+    </row>
+    <row r="99" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+    </row>
+    <row r="100" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+    </row>
+    <row r="101" spans="6:7" ht="16.5" customHeight="1">
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+    </row>
+    <row r="102" spans="6:7" ht="16.5" customHeight="1"/>
+    <row r="103" spans="6:7" ht="16.5" customHeight="1"/>
+    <row r="104" spans="6:7" ht="16.5" customHeight="1"/>
+    <row r="105" spans="6:7" ht="16.5" customHeight="1"/>
+    <row r="106" spans="6:7" ht="16.5" customHeight="1"/>
+    <row r="107" spans="6:7" ht="16.5" customHeight="1"/>
+    <row r="108" spans="6:7" ht="16.5" customHeight="1"/>
+    <row r="109" spans="6:7" ht="16.5" customHeight="1"/>
+    <row r="110" spans="6:7" ht="16.5" customHeight="1"/>
+    <row r="111" spans="6:7" ht="16.5" customHeight="1"/>
+    <row r="112" spans="6:7" ht="16.5" customHeight="1"/>
     <row r="113" ht="16.5" customHeight="1"/>
     <row r="114" ht="16.5" customHeight="1"/>
     <row r="115" ht="16.5" customHeight="1"/>
@@ -6176,13 +6724,13 @@
     <row r="1000" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="C72:C101"/>
-    <mergeCell ref="D72:D86"/>
-    <mergeCell ref="D87:D101"/>
+    <mergeCell ref="F72:F101"/>
+    <mergeCell ref="G72:G86"/>
+    <mergeCell ref="G87:G101"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6207,37 +6755,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>65</v>
+      <c r="B1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>62</v>
+      <c r="F1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>58</v>
+      <c r="B2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>3</v>
@@ -6245,8 +6793,8 @@
       <c r="E2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>68</v>
+      <c r="F2" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G2" t="str">
         <f xml:space="preserve"> D2 &amp; E2 &amp; F2</f>
@@ -6254,10 +6802,10 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10" t="s">
-        <v>59</v>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
@@ -6265,8 +6813,8 @@
       <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>69</v>
+      <c r="F3" s="10" t="s">
+        <v>63</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G9" si="0" xml:space="preserve"> D3 &amp; E3 &amp; F3</f>
@@ -6274,14 +6822,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>58</v>
+      <c r="B4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -6289,8 +6837,8 @@
       <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>68</v>
+      <c r="F4" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
@@ -6298,10 +6846,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10" t="s">
-        <v>60</v>
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -6309,8 +6857,8 @@
       <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>70</v>
+      <c r="F5" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -6318,10 +6866,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10" t="s">
-        <v>61</v>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>5</v>
@@ -6329,8 +6877,8 @@
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>71</v>
+      <c r="F6" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -6338,14 +6886,14 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>58</v>
+      <c r="B7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>52</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>5</v>
@@ -6353,8 +6901,8 @@
       <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>68</v>
+      <c r="F7" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -6362,10 +6910,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10" t="s">
-        <v>60</v>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
@@ -6373,8 +6921,8 @@
       <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>70</v>
+      <c r="F8" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -6382,10 +6930,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10" t="s">
-        <v>61</v>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
@@ -6393,8 +6941,8 @@
       <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="11" t="s">
-        <v>71</v>
+      <c r="F9" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -6402,7 +6950,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1">
-      <c r="F10" s="11"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1"/>
     <row r="12" spans="1:7" ht="16.5" customHeight="1"/>
@@ -7490,154 +8038,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>107</v>
+      <c r="A1" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>90</v>
+      <c r="A2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>91</v>
+      <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>92</v>
+      <c r="A4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>86</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>93</v>
+      <c r="A5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>87</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="7" t="s">
+      <c r="A6" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>94</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="A7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>95</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="A8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>96</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>97</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="A10" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>98</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="A11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>99</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -7673,32 +8221,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>110</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -7738,72 +8286,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="H1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="J1" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="K1" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="M1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="N1" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="Q1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="R1" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="T1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="O1" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="S1" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="T1" s="13" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="15"/>
+      <c r="A2" s="13"/>
     </row>
     <row r="3" spans="1:20">
-      <c r="A3" s="15"/>
+      <c r="A3" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -7828,268 +8376,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="D2" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="D3" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B4" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="B5" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="B6" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="18" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="20" t="s">
+      <c r="B7" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="23" t="s">
+      <c r="B8" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="20" t="s">
+      <c r="D8" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="23" t="s">
+      <c r="B11" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="D3" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="20" t="s">
+      <c r="D11" s="20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="B12" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="D4" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="20" t="s">
+      <c r="D12" s="20">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="23" t="s">
+      <c r="B13" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>180</v>
       </c>
-      <c r="D5" s="22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="20" t="s">
+      <c r="D13" s="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="23" t="s">
+      <c r="B14" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="20" t="s">
+      <c r="D14" s="20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="23" t="s">
+      <c r="B15" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="D7" s="22">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="20" t="s">
+      <c r="D15" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="23" t="s">
+      <c r="B16" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>183</v>
       </c>
-      <c r="D8" s="22">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="22">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="20" t="s">
+      <c r="D16" s="20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="20" t="s">
+      <c r="D17" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="20" t="s">
+      <c r="D18" s="20">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="C13" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D13" s="22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="23" t="s">
-        <v>187</v>
-      </c>
-      <c r="D14" s="22">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="D16" s="22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>190</v>
-      </c>
-      <c r="D17" s="22">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>191</v>
-      </c>
-      <c r="D18" s="22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>176</v>
-      </c>
-      <c r="D19" s="22">
+      <c r="D19" s="20">
         <v>18</v>
       </c>
     </row>

--- a/DB엑셀정리/데이터베이스초안.xlsx
+++ b/DB엑셀정리/데이터베이스초안.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevTool\BaseBall\BaseBall_data_Crowling\DB엑셀정리\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4073B116-7DAA-41F7-8810-AC4BD48B23EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD3F3CC-27A3-4E48-A544-54112026FA78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="국적" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,8 @@
     <sheet name="리그명" sheetId="4" r:id="rId4"/>
     <sheet name="야구 포지션" sheetId="5" r:id="rId5"/>
     <sheet name="선수마스터" sheetId="6" r:id="rId6"/>
-    <sheet name="년별팀스탯" sheetId="7" r:id="rId7"/>
-    <sheet name="게임용어 정리" sheetId="8" r:id="rId8"/>
+    <sheet name="게임용어 정리" sheetId="8" r:id="rId7"/>
+    <sheet name="년별팀스탯" sheetId="7" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="267">
   <si>
     <t>국적</t>
   </si>
@@ -1056,10 +1056,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>Effective Plate Appernce</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>At Bat</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1116,10 +1112,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>유효타석</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>타수</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1132,38 +1124,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>루타</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>루타</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>홈런</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1180,22 +1140,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>구</t>
-    </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>삼진</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1225,10 +1169,6 @@
   </si>
   <si>
     <t>L</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ePA</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1530,12 +1470,140 @@
     <t xml:space="preserve"> HAETAE TIGRES</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>타격스탯(batting stat)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Games Started</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>선발</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>GS</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Completed Game</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>완투</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShutOut</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>완봉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHO</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>세이브</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>SV</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯티즈 파싱용 코드</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탯뮤즈 파싱용 코드</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>피안타</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inning Pitched</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>이닝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earned Runs</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>자책점</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>실점</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hit By Pitch</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>사구</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>HBP</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2루타</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>3루타</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>4구</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>투구스탯(pitching stat)</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1682,25 +1750,9 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="굴림"/>
       <family val="2"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1709,16 +1761,43 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="굴림"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1726,11 +1805,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1782,19 +1879,16 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1807,13 +1901,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="나쁨" xfId="1" builtinId="27"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4150,7 +4257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -4176,16 +4283,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="E1" s="25" t="s">
-        <v>211</v>
+        <v>204</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>205</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
@@ -4202,11 +4309,11 @@
       <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="19" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="20" t="s">
         <v>112</v>
       </c>
       <c r="N1" s="6"/>
@@ -4219,7 +4326,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -4239,21 +4346,21 @@
         <f t="shared" ref="J2:J26" si="0">G2 &amp; H2 &amp; TEXT(I2, "000")</f>
         <v>BBKRKB001</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18">
         <v>6002</v>
       </c>
-      <c r="M2" s="20"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -4273,21 +4380,21 @@
         <f t="shared" si="0"/>
         <v>BBKRKB002</v>
       </c>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18">
         <v>5002</v>
       </c>
-      <c r="M3" s="20"/>
+      <c r="M3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="16.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -4307,27 +4414,27 @@
         <f t="shared" si="0"/>
         <v>BBKRKB003</v>
       </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18">
         <v>12001</v>
       </c>
-      <c r="M4" s="20"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>195</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>2</v>
@@ -4345,21 +4452,21 @@
         <f t="shared" si="0"/>
         <v>BBKRKB004</v>
       </c>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18">
         <v>9002</v>
       </c>
-      <c r="M5" s="20"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="1:14" ht="16.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>196</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -4379,27 +4486,27 @@
         <f t="shared" si="0"/>
         <v>BBKRKB005</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20">
+      <c r="K6" s="18"/>
+      <c r="L6" s="18">
         <v>11001</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="D7" s="3" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>2</v>
@@ -4417,11 +4524,11 @@
         <f t="shared" si="0"/>
         <v>BBKRKB006</v>
       </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20">
+      <c r="K7" s="18"/>
+      <c r="L7" s="18">
         <v>2002</v>
       </c>
-      <c r="M7" s="20"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1">
       <c r="A8" s="3" t="s">
@@ -4431,7 +4538,7 @@
         <v>19</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -4451,11 +4558,11 @@
         <f t="shared" si="0"/>
         <v>BBKRKB007</v>
       </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20">
+      <c r="K8" s="18"/>
+      <c r="L8" s="18">
         <v>3001</v>
       </c>
-      <c r="M8" s="20"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:14" ht="16.5" customHeight="1">
       <c r="A9" s="3" t="s">
@@ -4465,7 +4572,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -4485,11 +4592,11 @@
         <f t="shared" si="0"/>
         <v>BBKRKB008</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20">
+      <c r="K9" s="18"/>
+      <c r="L9" s="18">
         <v>1001</v>
       </c>
-      <c r="M9" s="20"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="1:14" ht="16.5" customHeight="1">
       <c r="A10" s="3" t="s">
@@ -4499,7 +4606,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -4519,11 +4626,11 @@
         <f t="shared" si="0"/>
         <v>BBKRKB009</v>
       </c>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20">
+      <c r="K10" s="18"/>
+      <c r="L10" s="18">
         <v>7002</v>
       </c>
-      <c r="M10" s="20"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="1:14" ht="16.5" customHeight="1">
       <c r="A11" s="3" t="s">
@@ -4533,7 +4640,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -4553,11 +4660,11 @@
         <f t="shared" si="0"/>
         <v>BBKRKB010</v>
       </c>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20">
+      <c r="K11" s="18"/>
+      <c r="L11" s="18">
         <v>10001</v>
       </c>
-      <c r="M11" s="20"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="1:14" ht="16.5" customHeight="1">
       <c r="A12" s="3" t="s">
@@ -4567,7 +4674,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -4587,9 +4694,9 @@
         <f t="shared" si="0"/>
         <v>BBUSNL001</v>
       </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20">
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18">
         <v>144</v>
       </c>
     </row>
@@ -4601,7 +4708,7 @@
         <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -4621,9 +4728,9 @@
         <f t="shared" si="0"/>
         <v>BBUSNL002</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20">
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18">
         <v>146</v>
       </c>
     </row>
@@ -4635,7 +4742,7 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -4655,9 +4762,9 @@
         <f t="shared" si="0"/>
         <v>BBUSNL003</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20">
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18">
         <v>121</v>
       </c>
     </row>
@@ -4669,7 +4776,7 @@
         <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -4689,9 +4796,9 @@
         <f t="shared" si="0"/>
         <v>BBUSNL004</v>
       </c>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20">
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18">
         <v>143</v>
       </c>
     </row>
@@ -4703,7 +4810,7 @@
         <v>27</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -4723,9 +4830,9 @@
         <f t="shared" si="0"/>
         <v>BBUSNL005</v>
       </c>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20">
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18">
         <v>120</v>
       </c>
     </row>
@@ -4737,7 +4844,7 @@
         <v>28</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -4757,9 +4864,9 @@
         <f t="shared" si="0"/>
         <v>BBUSNL006</v>
       </c>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20">
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18">
         <v>112</v>
       </c>
     </row>
@@ -4771,7 +4878,7 @@
         <v>29</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
@@ -4791,9 +4898,9 @@
         <f t="shared" si="0"/>
         <v>BBUSNL007</v>
       </c>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20">
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18">
         <v>113</v>
       </c>
     </row>
@@ -4805,7 +4912,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -4825,9 +4932,9 @@
         <f t="shared" si="0"/>
         <v>BBUSNL008</v>
       </c>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20">
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18">
         <v>158</v>
       </c>
     </row>
@@ -4839,7 +4946,7 @@
         <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
@@ -4859,9 +4966,9 @@
         <f t="shared" si="0"/>
         <v>BBUSNL009</v>
       </c>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20">
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18">
         <v>134</v>
       </c>
     </row>
@@ -4873,7 +4980,7 @@
         <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -4893,9 +5000,9 @@
         <f t="shared" si="0"/>
         <v>BBUSNL010</v>
       </c>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20">
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18">
         <v>138</v>
       </c>
     </row>
@@ -4907,7 +5014,7 @@
         <v>100</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -4927,9 +5034,9 @@
         <f t="shared" si="0"/>
         <v>BBUSNL011</v>
       </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20">
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18">
         <v>109</v>
       </c>
     </row>
@@ -4941,7 +5048,7 @@
         <v>33</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
@@ -4961,9 +5068,9 @@
         <f t="shared" si="0"/>
         <v>BBUSNL012</v>
       </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20">
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18">
         <v>115</v>
       </c>
     </row>
@@ -4975,7 +5082,7 @@
         <v>34</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
@@ -4995,9 +5102,9 @@
         <f t="shared" si="0"/>
         <v>BBUSNL013</v>
       </c>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20">
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18">
         <v>119</v>
       </c>
     </row>
@@ -5009,7 +5116,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -5029,9 +5136,9 @@
         <f t="shared" si="0"/>
         <v>BBUSNL014</v>
       </c>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20">
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18">
         <v>135</v>
       </c>
     </row>
@@ -5043,7 +5150,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
@@ -5063,9 +5170,9 @@
         <f t="shared" si="0"/>
         <v>BBUSNL015</v>
       </c>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20">
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18">
         <v>137</v>
       </c>
     </row>
@@ -5077,7 +5184,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -5097,9 +5204,9 @@
         <f t="shared" ref="J27:J41" si="1">G27&amp;H27&amp;TEXT(I27,"000")</f>
         <v>BBUSAL001</v>
       </c>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20">
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18">
         <v>110</v>
       </c>
     </row>
@@ -5111,7 +5218,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -5131,9 +5238,9 @@
         <f t="shared" si="1"/>
         <v>BBUSAL002</v>
       </c>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20">
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18">
         <v>111</v>
       </c>
     </row>
@@ -5145,7 +5252,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
@@ -5165,9 +5272,9 @@
         <f t="shared" si="1"/>
         <v>BBUSAL003</v>
       </c>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20">
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18">
         <v>147</v>
       </c>
     </row>
@@ -5179,7 +5286,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
@@ -5199,9 +5306,9 @@
         <f t="shared" si="1"/>
         <v>BBUSAL004</v>
       </c>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20">
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18">
         <v>139</v>
       </c>
     </row>
@@ -5213,7 +5320,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -5233,9 +5340,9 @@
         <f t="shared" si="1"/>
         <v>BBUSAL005</v>
       </c>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20">
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18">
         <v>141</v>
       </c>
     </row>
@@ -5247,7 +5354,7 @@
         <v>42</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
@@ -5267,9 +5374,9 @@
         <f t="shared" si="1"/>
         <v>BBUSAL006</v>
       </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20">
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18">
         <v>145</v>
       </c>
     </row>
@@ -5281,13 +5388,13 @@
         <v>43</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>4</v>
@@ -5305,9 +5412,9 @@
         <f t="shared" si="1"/>
         <v>BBUSAL007</v>
       </c>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20">
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18">
         <v>114</v>
       </c>
     </row>
@@ -5319,7 +5426,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
@@ -5339,9 +5446,9 @@
         <f t="shared" si="1"/>
         <v>BBUSAL008</v>
       </c>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20">
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18">
         <v>116</v>
       </c>
     </row>
@@ -5353,7 +5460,7 @@
         <v>45</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
@@ -5373,9 +5480,9 @@
         <f t="shared" si="1"/>
         <v>BBUSAL009</v>
       </c>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20">
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18">
         <v>118</v>
       </c>
     </row>
@@ -5387,7 +5494,7 @@
         <v>46</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -5407,9 +5514,9 @@
         <f t="shared" si="1"/>
         <v>BBUSAL010</v>
       </c>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20">
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18">
         <v>142</v>
       </c>
     </row>
@@ -5421,7 +5528,7 @@
         <v>47</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
@@ -5441,9 +5548,9 @@
         <f t="shared" si="1"/>
         <v>BBUSAL011</v>
       </c>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20">
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18">
         <v>117</v>
       </c>
     </row>
@@ -5455,7 +5562,7 @@
         <v>48</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -5475,9 +5582,9 @@
         <f t="shared" si="1"/>
         <v>BBUSAL012</v>
       </c>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20">
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18">
         <v>108</v>
       </c>
     </row>
@@ -5489,7 +5596,7 @@
         <v>49</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -5509,9 +5616,9 @@
         <f t="shared" si="1"/>
         <v>BBUSAL013</v>
       </c>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20">
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18">
         <v>133</v>
       </c>
     </row>
@@ -5523,7 +5630,7 @@
         <v>50</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
@@ -5543,9 +5650,9 @@
         <f t="shared" si="1"/>
         <v>BBUSAL014</v>
       </c>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20">
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18">
         <v>136</v>
       </c>
     </row>
@@ -5557,7 +5664,7 @@
         <v>51</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
@@ -5577,9 +5684,9 @@
         <f t="shared" si="1"/>
         <v>BBUSAL015</v>
       </c>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20">
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18">
         <v>140</v>
       </c>
     </row>
@@ -5704,124 +5811,124 @@
       <c r="G71" s="3"/>
     </row>
     <row r="72" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F72" s="22"/>
-      <c r="G72" s="24"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="23"/>
     </row>
     <row r="73" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
     </row>
     <row r="74" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
     </row>
     <row r="75" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
     </row>
     <row r="76" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
     </row>
     <row r="77" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
     </row>
     <row r="78" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
     </row>
     <row r="79" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
     </row>
     <row r="80" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
     </row>
     <row r="81" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
     </row>
     <row r="82" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
     </row>
     <row r="83" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
     </row>
     <row r="84" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
     </row>
     <row r="85" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
     </row>
     <row r="86" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
     </row>
     <row r="87" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F87" s="23"/>
-      <c r="G87" s="24"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="23"/>
     </row>
     <row r="88" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
     </row>
     <row r="89" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
     </row>
     <row r="90" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
     </row>
     <row r="91" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
     </row>
     <row r="92" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
     </row>
     <row r="93" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
     </row>
     <row r="94" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
     </row>
     <row r="95" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
     </row>
     <row r="96" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
     </row>
     <row r="97" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F97" s="23"/>
-      <c r="G97" s="23"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
     </row>
     <row r="98" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F98" s="23"/>
-      <c r="G98" s="23"/>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
     </row>
     <row r="99" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F99" s="23"/>
-      <c r="G99" s="23"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
     </row>
     <row r="100" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F100" s="23"/>
-      <c r="G100" s="23"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
     </row>
     <row r="101" spans="6:7" ht="16.5" customHeight="1">
-      <c r="F101" s="23"/>
-      <c r="G101" s="23"/>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
     </row>
     <row r="102" spans="6:7" ht="16.5" customHeight="1"/>
     <row r="103" spans="6:7" ht="16.5" customHeight="1"/>
@@ -8257,6 +8364,659 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F42D96-C540-4B7B-92E0-1A489267AF44}">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" s="25">
+        <v>2</v>
+      </c>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="25">
+        <v>3</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" s="25">
+        <v>5</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="25">
+        <v>6</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D8" s="25">
+        <v>7</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="25">
+        <v>8</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="25">
+        <v>9</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11" s="25">
+        <v>10</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D12" s="25">
+        <v>11</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="D13" s="25">
+        <v>12</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="25">
+        <v>13</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D15" s="25">
+        <v>14</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="25">
+        <v>15</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F16" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D17" s="25">
+        <v>16</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="F17" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="25">
+        <v>17</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>179</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="25">
+        <v>18</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="D21" s="25">
+        <v>19</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" s="25">
+        <v>20</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" s="25">
+        <v>21</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="D24" s="25">
+        <v>22</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25" s="25">
+        <v>23</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="29" t="s">
+        <v>251</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" s="25">
+        <v>24</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="D27" s="25">
+        <v>25</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" s="25">
+        <v>26</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D29" s="25">
+        <v>27</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="25">
+        <v>28</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="D31" s="25">
+        <v>29</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="29" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="25">
+        <v>30</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.75">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A20:D20"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D22F97F2-3E13-4AC0-82DD-6D9E2302F34D}">
   <dimension ref="A1:T3"/>
   <sheetViews>
@@ -8359,295 +9119,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F42D96-C540-4B7B-92E0-1A489267AF44}">
-  <dimension ref="A1:D19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" s="17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D2" s="20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="D3" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D5" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="19" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="D7" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="20">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D11" s="20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="20">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>163</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D13" s="20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D14" s="20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D15" s="20">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="20">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="20">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="20">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D19" s="20">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C5F7554-A8D9-4789-8CAB-13537C3396CE}">
   <dimension ref="A1"/>
